--- a/Propuesta Instrucciones Arquitectura.xlsx
+++ b/Propuesta Instrucciones Arquitectura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/ju_navarro_estudiantec_cr1/Documents/Tec/2022 I Semester/Computer Architecture/Proyectos/Proyecto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_AD4D2F04E46CFB4ACB3E2061A5D6E8A4683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6181061D-540B-4BA8-80BD-721006C89923}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="11_AD4D2F04E46CFB4ACB3E2061A5D6E8A4683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A16ADA7-8DB1-4684-85A8-CE65B353A819}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="15" windowWidth="20490" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">   PC = PC + dir</t>
   </si>
   <si>
-    <t>if (R[reg1] &gt; R[reg2]):</t>
-  </si>
-  <si>
     <t xml:space="preserve">R[reg1] = Mem[R[reg2] + inm] </t>
   </si>
   <si>
@@ -210,46 +207,6 @@
   </si>
   <si>
     <t>R[reg1] = R[reg1] % inm</t>
-  </si>
-  <si>
-    <t>SUM R1, R2, R3
-- en R1 se guardará el valor de la suma de R2 con R3</t>
-  </si>
-  <si>
-    <t>RES R1, R2, R3
-- en R1 se guardará el valor de la resta de R2 con R3</t>
-  </si>
-  <si>
-    <t>MUL R1, R2, R3
-- en R1 se guardará el valor de la multiplicación de R2 con R3</t>
-  </si>
-  <si>
-    <t>DIV R1, R], R3
-- en R1 se guardará el valor de la división entera de R] con R3</t>
-  </si>
-  <si>
-    <t>RSD R1, R2, R3
-- en R1 se guardará el valor de la residuo de R2 con R3</t>
-  </si>
-  <si>
-    <t>SUMI R1, inm
-- en R1 se guardará el valor de la suma de R1 con el inm</t>
-  </si>
-  <si>
-    <t>RESI R1, inm
-- en R1 re guardará el valor de la resta de R1  con el  inm</t>
-  </si>
-  <si>
-    <t>MULI R1, inm
-- se guardará el valor de la mult de R1 con el inm</t>
-  </si>
-  <si>
-    <t>DIVI R1, inm
-- s guardará el valor de la divi de R1  con el inm</t>
-  </si>
-  <si>
-    <t>RSDI R1, inm
-- se guardará el valor del residuo de R1 con el inmediato</t>
   </si>
   <si>
     <t>0000</t>
@@ -343,6 +300,298 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>GDR R1, 2 (R2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en esta instrucción se guarda el valor del resgitro R1 en la dirección de memoria 2 + valor de R2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRG R1, 2(R2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en esta instrucción se carga en el R1 lo que está en la dirección de memoria 2 + valor de R2</t>
+    </r>
+  </si>
+  <si>
+    <t>if (R[reg1] &gt; R[reg2]):
+   PC =  PC + dir</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUM R1, R2, R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la suma de R2 con R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RES R1, R2, R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la resta de R2 con R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MUL R1, R2, R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la multiplicación de R2 con R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIV R1, R2, R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la división entera de R2 con R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSD R1, R2, R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la residuo de R2 con R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUMI R1, inm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 se guardará el valor de la suma de R1 con el inm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESI R1, inm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- en R1 re guardará el valor de la resta de R1  con el  inm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MULI R1, inm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- se guardará el valor de la mult de R1 con el inm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIVI R1, inm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- s guardará el valor de la divi de R1  con el inm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RSDI R1, inm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- se guardará el valor del residuo de R1 con el inmediato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SI salto</t>
     </r>
     <r>
@@ -355,7 +604,7 @@
       </rPr>
       <t xml:space="preserve">
 donde:
-- salto es la dirección de la próxima instrucción</t>
+- salto es la etiqueta a donde se quiere ir</t>
     </r>
   </si>
   <si>
@@ -380,56 +629,8 @@
       </rPr>
       <t xml:space="preserve">
 donde:
-- salto es la dirección de la próxima instrucción.
+- salto es la etiqueta a donde se quiere ir
 - En RR se guarda la dirección de la siguiente instrucción de la que hizo el salto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GDR R1, 2 (R2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- en esta instrucción se guarda el valor del resgitro R1 en la dirección de memoria 2 + valor de R2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRG R1, 2(R2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- en esta instrucción se carga en el R1 lo que está en la dirección de memoria 2 + valor de R2</t>
     </r>
   </si>
 </sst>
@@ -760,15 +961,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
+      <xdr:colOff>481693</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>517070</xdr:rowOff>
+      <xdr:rowOff>469445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>62454</xdr:colOff>
+      <xdr:colOff>176754</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:rowOff>129267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,8 +991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16818429" y="6857999"/>
-          <a:ext cx="3368989" cy="3864429"/>
+          <a:off x="16893268" y="6784520"/>
+          <a:ext cx="3352661" cy="3869872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,7 +1055,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>278061</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>284831</xdr:rowOff>
+      <xdr:rowOff>481900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1197,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>4</v>
@@ -1257,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G4" s="14">
         <v>10</v>
@@ -1272,16 +1473,16 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G5" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -1293,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -1308,10 +1509,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>15</v>
@@ -1328,13 +1529,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,195 +1547,195 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1600,6 +1801,7 @@
     <mergeCell ref="B10:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>